--- a/app/src/main/res/raw/plantilla.xlsx
+++ b/app/src/main/res/raw/plantilla.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED376EA2-6CD2-45E7-9032-F9A917EE416F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807ED41E-4DB4-4C98-AE8B-25C010CD59A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F88DAA9C-A21E-4089-95D6-749FA8FD7D25}"/>
   </bookViews>
@@ -342,7 +342,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +510,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1478,7 +1486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1638,6 +1646,252 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1647,311 +1901,74 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1996,49 +2013,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>102870</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>81302</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>146685</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF0491D-8947-43AD-B0D4-DDA7011E53E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="26191" t="23334" r="32380" b="31428"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4979670" y="1887242"/>
-          <a:ext cx="775335" cy="791188"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -2064,13 +2038,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId3"/>
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2454,7 +2428,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:G22"/>
+      <selection activeCell="T7" sqref="T7:Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2469,26 +2443,26 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="141"/>
+      <c r="T1" s="141"/>
+      <c r="U1" s="141"/>
+      <c r="V1" s="141"/>
+      <c r="W1" s="141"/>
+      <c r="X1" s="141"/>
+      <c r="Y1" s="141"/>
+      <c r="Z1" s="141"/>
     </row>
     <row r="2" spans="1:26" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -2497,28 +2471,28 @@
       <c r="D2" s="1"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="142"/>
     </row>
     <row r="3" spans="1:26" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
@@ -2531,112 +2505,112 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="143"/>
+      <c r="U3" s="143"/>
+      <c r="V3" s="143"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="63" t="s">
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+      <c r="R4" s="144"/>
+      <c r="S4" s="144"/>
+      <c r="T4" s="144"/>
+      <c r="U4" s="144"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="144"/>
+      <c r="Z4" s="144"/>
     </row>
     <row r="5" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
     </row>
     <row r="6" spans="1:26" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="136"/>
+      <c r="Q6" s="136"/>
+      <c r="R6" s="136"/>
+      <c r="S6" s="136"/>
+      <c r="T6" s="136"/>
+      <c r="U6" s="136"/>
+      <c r="V6" s="136"/>
+      <c r="W6" s="136"/>
+      <c r="X6" s="136"/>
+      <c r="Y6" s="136"/>
+      <c r="Z6" s="136"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -2644,14 +2618,14 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2660,19 +2634,19 @@
       <c r="M7" s="1"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="68" t="s">
+      <c r="P7" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="70"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="138"/>
+      <c r="S7" s="138"/>
+      <c r="T7" s="139"/>
+      <c r="U7" s="139"/>
+      <c r="V7" s="139"/>
+      <c r="W7" s="139"/>
+      <c r="X7" s="139"/>
+      <c r="Y7" s="139"/>
+      <c r="Z7" s="139"/>
     </row>
     <row r="8" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -2680,14 +2654,14 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
       <c r="J8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2696,19 +2670,19 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="69" t="s">
+      <c r="P8" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
+      <c r="Q8" s="125"/>
+      <c r="R8" s="125"/>
+      <c r="S8" s="125"/>
+      <c r="T8" s="140"/>
+      <c r="U8" s="140"/>
+      <c r="V8" s="140"/>
+      <c r="W8" s="140"/>
+      <c r="X8" s="140"/>
+      <c r="Y8" s="140"/>
+      <c r="Z8" s="140"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -2716,14 +2690,14 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
       <c r="J9" s="7" t="s">
         <v>15</v>
       </c>
@@ -2732,19 +2706,19 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="69" t="s">
+      <c r="P9" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="71"/>
+      <c r="Q9" s="125"/>
+      <c r="R9" s="125"/>
+      <c r="S9" s="125"/>
+      <c r="T9" s="140"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="140"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="140"/>
+      <c r="Y9" s="140"/>
+      <c r="Z9" s="140"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -2752,14 +2726,14 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
       <c r="J10" s="58"/>
       <c r="K10" s="58"/>
       <c r="L10" s="58"/>
@@ -2770,13 +2744,13 @@
       <c r="Q10" s="58"/>
       <c r="R10" s="58"/>
       <c r="S10" s="29"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
+      <c r="T10" s="140"/>
+      <c r="U10" s="140"/>
+      <c r="V10" s="140"/>
+      <c r="W10" s="140"/>
+      <c r="X10" s="140"/>
+      <c r="Y10" s="140"/>
+      <c r="Z10" s="140"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -2798,43 +2772,43 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="71"/>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="71"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="140"/>
+      <c r="V11" s="140"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="140"/>
+      <c r="Y11" s="140"/>
+      <c r="Z11" s="140"/>
     </row>
     <row r="12" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="127"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="127"/>
+      <c r="T12" s="127"/>
+      <c r="U12" s="127"/>
+      <c r="V12" s="127"/>
+      <c r="W12" s="127"/>
+      <c r="X12" s="127"/>
+      <c r="Y12" s="127"/>
+      <c r="Z12" s="127"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -2842,17 +2816,17 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
       <c r="M13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2861,15 +2835,15 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="77" t="s">
+      <c r="S13" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="77"/>
+      <c r="T13" s="116"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="116"/>
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -2878,17 +2852,17 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
       <c r="M14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2897,15 +2871,15 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="77" t="s">
+      <c r="S14" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="77"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="116"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="116"/>
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
@@ -2914,17 +2888,17 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
       <c r="M15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2933,114 +2907,114 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="69" t="s">
+      <c r="S15" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
+      <c r="T15" s="126"/>
+      <c r="U15" s="126"/>
+      <c r="V15" s="126"/>
+      <c r="W15" s="126"/>
+      <c r="X15" s="126"/>
+      <c r="Y15" s="126"/>
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
+      <c r="M16" s="128"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="128"/>
+      <c r="P16" s="128"/>
+      <c r="Q16" s="128"/>
+      <c r="R16" s="128"/>
+      <c r="S16" s="128"/>
+      <c r="T16" s="128"/>
+      <c r="U16" s="128"/>
+      <c r="V16" s="128"/>
+      <c r="W16" s="128"/>
+      <c r="X16" s="128"/>
+      <c r="Y16" s="128"/>
+      <c r="Z16" s="128"/>
     </row>
     <row r="17" spans="1:26" s="9" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="78" t="s">
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="74" t="s">
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="134"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="T17" s="75"/>
-      <c r="U17" s="75"/>
-      <c r="V17" s="75"/>
-      <c r="W17" s="75"/>
-      <c r="X17" s="75"/>
-      <c r="Y17" s="75"/>
-      <c r="Z17" s="76"/>
+      <c r="T17" s="130"/>
+      <c r="U17" s="130"/>
+      <c r="V17" s="130"/>
+      <c r="W17" s="130"/>
+      <c r="X17" s="130"/>
+      <c r="Y17" s="130"/>
+      <c r="Z17" s="131"/>
     </row>
     <row r="18" spans="1:26" s="9" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="84" t="s">
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="97" t="s">
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="114"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="114"/>
+      <c r="R18" s="115"/>
+      <c r="S18" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="T18" s="98"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="98"/>
-      <c r="W18" s="98"/>
-      <c r="X18" s="98"/>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="99"/>
+      <c r="T18" s="120"/>
+      <c r="U18" s="120"/>
+      <c r="V18" s="120"/>
+      <c r="W18" s="120"/>
+      <c r="X18" s="120"/>
+      <c r="Y18" s="120"/>
+      <c r="Z18" s="121"/>
     </row>
     <row r="19" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
@@ -3054,282 +3028,320 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="106" t="s">
+      <c r="J19" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107" t="s">
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="100"/>
-      <c r="T19" s="101"/>
-      <c r="U19" s="101"/>
-      <c r="V19" s="101"/>
-      <c r="W19" s="101"/>
-      <c r="X19" s="101"/>
-      <c r="Y19" s="101"/>
-      <c r="Z19" s="102"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="103"/>
+      <c r="S19" s="122"/>
+      <c r="T19" s="123"/>
+      <c r="U19" s="123"/>
+      <c r="V19" s="123"/>
+      <c r="W19" s="123"/>
+      <c r="X19" s="123"/>
+      <c r="Y19" s="123"/>
+      <c r="Z19" s="124"/>
     </row>
     <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="88" t="s">
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="91"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="99"/>
+      <c r="W20" s="99"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="100"/>
     </row>
     <row r="21" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="94" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="93" t="s">
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="93"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="93"/>
-      <c r="U21" s="132" t="s">
+      <c r="P21" s="80"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="V21" s="133"/>
-      <c r="W21" s="133"/>
-      <c r="X21" s="133"/>
-      <c r="Y21" s="133"/>
-      <c r="Z21" s="134"/>
+      <c r="V21" s="82"/>
+      <c r="W21" s="82"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="82"/>
+      <c r="Z21" s="83"/>
     </row>
     <row r="22" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="94"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="96"/>
+      <c r="A22" s="164"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="109"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="105"/>
+      <c r="R22" s="105"/>
+      <c r="S22" s="105"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="105"/>
+      <c r="V22" s="105"/>
+      <c r="W22" s="105"/>
+      <c r="X22" s="105"/>
+      <c r="Y22" s="105"/>
+      <c r="Z22" s="106"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="103" t="s">
+      <c r="A23" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="130"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="130"/>
-      <c r="O23" s="130"/>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="131"/>
-      <c r="R23" s="103" t="s">
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="S23" s="104"/>
-      <c r="T23" s="104"/>
-      <c r="U23" s="104"/>
-      <c r="V23" s="104"/>
-      <c r="W23" s="104"/>
-      <c r="X23" s="104"/>
-      <c r="Y23" s="104"/>
-      <c r="Z23" s="105"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="77"/>
+      <c r="Z23" s="95"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="135" t="s">
+      <c r="A24" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="136"/>
-      <c r="C24" s="136"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="137"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="139"/>
-      <c r="M24" s="139"/>
-      <c r="N24" s="139"/>
-      <c r="O24" s="139"/>
-      <c r="P24" s="139"/>
-      <c r="Q24" s="140"/>
-      <c r="R24" s="141" t="s">
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="S24" s="142"/>
-      <c r="T24" s="142"/>
-      <c r="U24" s="142"/>
-      <c r="V24" s="142"/>
-      <c r="W24" s="142"/>
-      <c r="X24" s="142"/>
-      <c r="Y24" s="142"/>
-      <c r="Z24" s="143"/>
+      <c r="S24" s="91"/>
+      <c r="T24" s="91"/>
+      <c r="U24" s="91"/>
+      <c r="V24" s="91"/>
+      <c r="W24" s="91"/>
+      <c r="X24" s="91"/>
+      <c r="Y24" s="91"/>
+      <c r="Z24" s="92"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="135" t="s">
+      <c r="A25" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="136"/>
-      <c r="C25" s="136"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="144"/>
-      <c r="M25" s="144"/>
-      <c r="N25" s="144"/>
-      <c r="O25" s="144"/>
-      <c r="P25" s="144"/>
-      <c r="Q25" s="145"/>
-      <c r="R25" s="141" t="s">
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="S25" s="142"/>
-      <c r="T25" s="142"/>
-      <c r="U25" s="142"/>
-      <c r="V25" s="142"/>
-      <c r="W25" s="142"/>
-      <c r="X25" s="142"/>
-      <c r="Y25" s="142"/>
-      <c r="Z25" s="143"/>
+      <c r="S25" s="91"/>
+      <c r="T25" s="91"/>
+      <c r="U25" s="91"/>
+      <c r="V25" s="91"/>
+      <c r="W25" s="91"/>
+      <c r="X25" s="91"/>
+      <c r="Y25" s="91"/>
+      <c r="Z25" s="92"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="113" t="s">
+      <c r="A26" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="114"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="113"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="124" t="s">
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="S26" s="125"/>
-      <c r="T26" s="125"/>
-      <c r="U26" s="125"/>
-      <c r="V26" s="125"/>
-      <c r="W26" s="125"/>
-      <c r="X26" s="125"/>
-      <c r="Y26" s="125"/>
-      <c r="Z26" s="126"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="71"/>
+      <c r="Y26" s="71"/>
+      <c r="Z26" s="72"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="116"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="122"/>
-      <c r="M27" s="122"/>
-      <c r="N27" s="122"/>
-      <c r="O27" s="122"/>
-      <c r="P27" s="122"/>
-      <c r="Q27" s="123"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="128"/>
-      <c r="T27" s="128"/>
-      <c r="U27" s="128"/>
-      <c r="V27" s="128"/>
-      <c r="W27" s="128"/>
-      <c r="X27" s="128"/>
-      <c r="Y27" s="128"/>
-      <c r="Z27" s="129"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="74"/>
+      <c r="U27" s="74"/>
+      <c r="V27" s="74"/>
+      <c r="W27" s="74"/>
+      <c r="X27" s="74"/>
+      <c r="Y27" s="74"/>
+      <c r="Z27" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="G1:Z1"/>
+    <mergeCell ref="G2:Z2"/>
+    <mergeCell ref="K3:V3"/>
+    <mergeCell ref="A5:Z5"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:Z6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T7:Z11"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="A12:Z12"/>
+    <mergeCell ref="A16:Z16"/>
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="S14:Y14"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="J17:R17"/>
+    <mergeCell ref="U22:Z22"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="J18:R18"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="O20:Z20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="S18:Z19"/>
+    <mergeCell ref="S15:Y15"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
     <mergeCell ref="A26:J27"/>
     <mergeCell ref="K26:Q27"/>
     <mergeCell ref="R26:Z27"/>
@@ -3343,47 +3355,9 @@
     <mergeCell ref="K25:Q25"/>
     <mergeCell ref="R25:Z25"/>
     <mergeCell ref="R23:Z23"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="H22:N22"/>
     <mergeCell ref="O22:T22"/>
-    <mergeCell ref="U22:Z22"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="J18:R18"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="O20:Z20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="S18:Z19"/>
-    <mergeCell ref="S15:Y15"/>
-    <mergeCell ref="A12:Z12"/>
-    <mergeCell ref="A16:Z16"/>
-    <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="S13:Y13"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="S14:Y14"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="J17:R17"/>
-    <mergeCell ref="A6:Z6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T7:Z11"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="G1:Z1"/>
-    <mergeCell ref="G2:Z2"/>
-    <mergeCell ref="K3:V3"/>
-    <mergeCell ref="A5:Z5"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3413,12 +3387,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
       <c r="E1" s="146"/>
     </row>
     <row r="2" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3668,28 +3642,28 @@
       <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="147" t="s">
+      <c r="A4" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="147"/>
+      <c r="B4" s="162"/>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="147"/>
+      <c r="B5" s="162"/>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="162" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="147"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
@@ -3702,10 +3676,10 @@
       <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="163" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="148"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
@@ -3718,10 +3692,10 @@
       <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="147"/>
+      <c r="B10" s="162"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
@@ -3924,67 +3898,67 @@
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="162" t="s">
+      <c r="A29" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="162"/>
+      <c r="B29" s="147"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="163" t="s">
+      <c r="A30" s="148" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="163"/>
+      <c r="B30" s="148"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="163" t="s">
+      <c r="A31" s="148" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="163"/>
+      <c r="B31" s="148"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="163" t="s">
+      <c r="A32" s="148" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="163"/>
+      <c r="B32" s="148"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="163" t="s">
+      <c r="A33" s="148" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="163"/>
+      <c r="B33" s="148"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:E13"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A12:E13"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="B16:B17 A18">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
